--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06563577326886194</v>
+        <v>0.155735342972489</v>
       </c>
       <c r="D2">
-        <v>0.02988072824760368</v>
+        <v>0.06703962894406534</v>
       </c>
       <c r="E2">
-        <v>0.09318770504642782</v>
+        <v>0.1218441147767853</v>
       </c>
       <c r="F2">
-        <v>0.0569069561967297</v>
+        <v>0.1206751132599995</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06563577326886194</v>
+        <v>0.155735342972489</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5642706296175479</v>
+        <v>0.6717334214439286</v>
       </c>
       <c r="E3">
-        <v>0.5639088761273698</v>
+        <v>0.6232646629428999</v>
       </c>
       <c r="F3">
-        <v>0.8375003832685874</v>
+        <v>0.8668519093654812</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02988072824760368</v>
+        <v>0.06703962894406534</v>
       </c>
       <c r="C4">
-        <v>0.5642706296175479</v>
+        <v>0.6717334214439286</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2378053095267427</v>
+        <v>0.3552301627312495</v>
       </c>
       <c r="F4">
-        <v>0.4352697028692836</v>
+        <v>0.5037495377485375</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09318770504642782</v>
+        <v>0.1218441147767853</v>
       </c>
       <c r="C5">
-        <v>0.5639088761273698</v>
+        <v>0.6232646629428999</v>
       </c>
       <c r="D5">
-        <v>0.2378053095267427</v>
+        <v>0.3552301627312495</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6203164037261213</v>
+        <v>0.6847938334849961</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0569069561967297</v>
+        <v>0.1206751132599995</v>
       </c>
       <c r="C6">
-        <v>0.8375003832685874</v>
+        <v>0.8668519093654812</v>
       </c>
       <c r="D6">
-        <v>0.4352697028692836</v>
+        <v>0.5037495377485375</v>
       </c>
       <c r="E6">
-        <v>0.6203164037261213</v>
+        <v>0.6847938334849961</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.845129509647809</v>
+        <v>-1.500351137043517</v>
       </c>
       <c r="D2">
-        <v>-2.178165444455042</v>
+        <v>-1.985459475008506</v>
       </c>
       <c r="E2">
-        <v>-1.682169491940815</v>
+        <v>-1.646844032069017</v>
       </c>
       <c r="F2">
-        <v>-1.908632161594967</v>
+        <v>-1.652496127919068</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.845129509647809</v>
+        <v>1.500351137043517</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5769109569918308</v>
+        <v>-0.4328277101067428</v>
       </c>
       <c r="E3">
-        <v>0.5774469567944338</v>
+        <v>0.5022994526076398</v>
       </c>
       <c r="F3">
-        <v>0.2052034034820023</v>
+        <v>0.1707650398062218</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.178165444455042</v>
+        <v>1.985459475008506</v>
       </c>
       <c r="C4">
-        <v>0.5769109569918308</v>
+        <v>0.4328277101067428</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.181966792268144</v>
+        <v>0.9561226991034093</v>
       </c>
       <c r="F4">
-        <v>0.7808614754692097</v>
+        <v>0.6862722402122541</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.682169491940815</v>
+        <v>1.646844032069017</v>
       </c>
       <c r="C5">
-        <v>-0.5774469567944338</v>
+        <v>-0.5022994526076398</v>
       </c>
       <c r="D5">
-        <v>-1.181966792268144</v>
+        <v>-0.9561226991034093</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.4957241506761377</v>
+        <v>-0.4144934036874958</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.908632161594967</v>
+        <v>1.652496127919068</v>
       </c>
       <c r="C6">
-        <v>-0.2052034034820023</v>
+        <v>-0.1707650398062218</v>
       </c>
       <c r="D6">
-        <v>-0.7808614754692097</v>
+        <v>-0.6862722402122541</v>
       </c>
       <c r="E6">
-        <v>0.4957241506761377</v>
+        <v>0.4144934036874958</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.155735342972489</v>
+        <v>0.5082759054289392</v>
       </c>
       <c r="D2">
-        <v>0.06703962894406534</v>
+        <v>0.8859803992770612</v>
       </c>
       <c r="E2">
-        <v>0.1218441147767853</v>
+        <v>0.8189189811502544</v>
       </c>
       <c r="F2">
-        <v>0.1206751132599995</v>
+        <v>0.3426078984772154</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.155735342972489</v>
+        <v>0.5082759054289392</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6717334214439286</v>
+        <v>0.5376597525930231</v>
       </c>
       <c r="E3">
-        <v>0.6232646629428999</v>
+        <v>0.3958799876322012</v>
       </c>
       <c r="F3">
-        <v>0.8668519093654812</v>
+        <v>0.5960355512350863</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06703962894406534</v>
+        <v>0.8859803992770612</v>
       </c>
       <c r="C4">
-        <v>0.6717334214439286</v>
+        <v>0.5376597525930231</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3552301627312495</v>
+        <v>0.6896142149159692</v>
       </c>
       <c r="F4">
-        <v>0.5037495377485375</v>
+        <v>0.3436704478960257</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1218441147767853</v>
+        <v>0.8189189811502544</v>
       </c>
       <c r="C5">
-        <v>0.6232646629428999</v>
+        <v>0.3958799876322012</v>
       </c>
       <c r="D5">
-        <v>0.3552301627312495</v>
+        <v>0.6896142149159692</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6847938334849961</v>
+        <v>0.3115802159529761</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1206751132599995</v>
+        <v>0.3426078984772154</v>
       </c>
       <c r="C6">
-        <v>0.8668519093654812</v>
+        <v>0.5960355512350863</v>
       </c>
       <c r="D6">
-        <v>0.5037495377485375</v>
+        <v>0.3436704478960257</v>
       </c>
       <c r="E6">
-        <v>0.6847938334849961</v>
+        <v>0.3115802159529761</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.500351137043517</v>
+        <v>0.6724870801381418</v>
       </c>
       <c r="D2">
-        <v>-1.985459475008506</v>
+        <v>0.1450649778067038</v>
       </c>
       <c r="E2">
-        <v>-1.646844032069017</v>
+        <v>-0.2316916627633899</v>
       </c>
       <c r="F2">
-        <v>-1.652496127919068</v>
+        <v>0.9699648787069624</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.500351137043517</v>
+        <v>-0.6724870801381418</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.4328277101067428</v>
+        <v>-0.6261497014164904</v>
       </c>
       <c r="E3">
-        <v>0.5022994526076398</v>
+        <v>-0.8659189354098558</v>
       </c>
       <c r="F3">
-        <v>0.1707650398062218</v>
+        <v>0.5379158639839426</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.985459475008506</v>
+        <v>-0.1450649778067038</v>
       </c>
       <c r="C4">
-        <v>0.4328277101067428</v>
+        <v>0.6261497014164904</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9561226991034093</v>
+        <v>-0.4046885888862221</v>
       </c>
       <c r="F4">
-        <v>0.6862722402122541</v>
+        <v>0.9677870314292577</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.646844032069017</v>
+        <v>0.2316916627633899</v>
       </c>
       <c r="C5">
-        <v>-0.5022994526076398</v>
+        <v>0.8659189354098558</v>
       </c>
       <c r="D5">
-        <v>-0.9561226991034093</v>
+        <v>0.4046885888862221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.4144934036874958</v>
+        <v>1.035728024669683</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.652496127919068</v>
+        <v>-0.9699648787069624</v>
       </c>
       <c r="C6">
-        <v>-0.1707650398062218</v>
+        <v>-0.5379158639839426</v>
       </c>
       <c r="D6">
-        <v>-0.6862722402122541</v>
+        <v>-0.9677870314292577</v>
       </c>
       <c r="E6">
-        <v>0.4144934036874958</v>
+        <v>-1.035728024669683</v>
       </c>
       <c r="F6">
         <v>0</v>
